--- a/Definicion y administracion de requerimientos de software/Plantillas/PL Lista de chequeo.xlsx
+++ b/Definicion y administracion de requerimientos de software/Plantillas/PL Lista de chequeo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruzrodriguez/Desktop/METFOR/Definicion y administracion de requerimientos de software/Plantillas/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75734114-B9D7-E04A-983B-BAB41988653E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de chequeo" sheetId="1" r:id="rId1"/>
@@ -113,9 +114,6 @@
     <t>METFOR</t>
   </si>
   <si>
-    <t>CICLO I</t>
-  </si>
-  <si>
     <t>NOMBRE:</t>
   </si>
   <si>
@@ -130,6 +128,9 @@
   </si>
   <si>
     <t>LISTA DE CHEQUEO REQUERIMIENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CICLO </t>
   </si>
 </sst>
 </file>
@@ -571,36 +572,36 @@
   <dimension ref="B2:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="80" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -608,21 +609,21 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -632,7 +633,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
@@ -643,98 +644,98 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
         <v>10</v>
       </c>
@@ -742,7 +743,7 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
         <v>17</v>
       </c>
@@ -750,7 +751,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
         <v>11</v>
       </c>
@@ -758,7 +759,7 @@
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
         <v>18</v>
       </c>
@@ -766,7 +767,7 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
         <v>19</v>
       </c>
@@ -774,15 +775,15 @@
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
         <v>20</v>
       </c>
@@ -790,15 +791,15 @@
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
         <v>21</v>
       </c>
@@ -806,7 +807,7 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>12</v>
       </c>
@@ -814,7 +815,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
         <v>22</v>
       </c>
@@ -822,7 +823,7 @@
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
         <v>23</v>
       </c>
